--- a/UDM_Guidelines.xlsx
+++ b/UDM_Guidelines.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613DBD9-569B-47B0-B9E5-FB01211E17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EFECC-8399-4E40-B27E-569F5BEE779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="UDM Requirements" sheetId="2" r:id="rId1"/>
+    <sheet name="UDM Times in Need" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -59,19 +60,7 @@
     <t>Minimum # of shifts worked to excuse requirement</t>
   </si>
   <si>
-    <t>If other, please specify</t>
-  </si>
-  <si>
-    <t>Shift(s) needed to excuse requirement (Blank if N/A)</t>
-  </si>
-  <si>
     <t>Exceptions? (Y/N)</t>
-  </si>
-  <si>
-    <t>Maximum End Time (Ex. "2:00 PM", Leave Blank if N/A)</t>
-  </si>
-  <si>
-    <t>Minimum End Time (Ex. "2:00 PM", Leave Blank if N/A)</t>
   </si>
   <si>
     <t>Day(s) (Select N/A if requirement is of a different type)</t>
@@ -83,16 +72,61 @@
     <t xml:space="preserve">Requirement Name </t>
   </si>
   <si>
-    <t>Minimum Start Time (Ex. "2:00 PM", Leave Blank if N/A)</t>
-  </si>
-  <si>
-    <t>Maximum Start Time (Ex. "2:00 PM",  Leave Blank if N/A)</t>
-  </si>
-  <si>
     <t>Ignore these values: These are meant for python to interact with the checkboxes in excel</t>
   </si>
   <si>
     <t xml:space="preserve">Shift Type </t>
+  </si>
+  <si>
+    <t>If Other, Please Specify (Separate shifts by a comma if multiple)</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Earliest Start Time</t>
+  </si>
+  <si>
+    <t>Latest Start Time</t>
+  </si>
+  <si>
+    <t>Earliest End Time</t>
+  </si>
+  <si>
+    <t>Latest End Time</t>
+  </si>
+  <si>
+    <t>NOTE: Leave times blank if N/A</t>
+  </si>
+  <si>
+    <t>Earliest Start Time (Ex. "2:00 PM", Leave Blank if N/A)</t>
+  </si>
+  <si>
+    <t>Latest Start Time (Ex. "2:00 PM",  Leave Blank if N/A)</t>
+  </si>
+  <si>
+    <t>Earliest End Time (Ex. "2:00 PM", Leave Blank if N/A)</t>
+  </si>
+  <si>
+    <t>Latest End Time (Ex. "2:00 PM", Leave Blank if N/A)</t>
+  </si>
+  <si>
+    <t>Shift(s) needed to excuse requirement</t>
   </si>
 </sst>
 </file>
@@ -122,7 +156,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,11 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,23 +281,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -263,43 +305,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -307,43 +349,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J42" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J45" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J46" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="J47" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,23 +393,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2456,13 +2510,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>251460</xdr:rowOff>
@@ -2542,13 +2596,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>807720</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
@@ -2628,13 +2682,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>373380</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>807720</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>586740</xdr:rowOff>
@@ -2714,13 +2768,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>556260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>807720</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>769620</xdr:rowOff>
@@ -2800,26 +2854,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1607820</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2872,7 +2926,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Dish Room</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2886,26 +2940,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2958,7 +3012,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Dining Room</a:t>
+                <a:t>Breakfast</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2972,26 +3026,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>365760</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>579120</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3044,7 +3098,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Back of House</a:t>
+                <a:t>Lunch</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3058,26 +3112,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>548640</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>762000</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>586740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3130,7 +3184,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Other</a:t>
+                <a:t>Dinner</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3144,26 +3198,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>556260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>251460</xdr:rowOff>
+          <xdr:rowOff>769620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3216,7 +3270,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Breakfast</a:t>
+                <a:t>Late Night</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3230,26 +3284,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>807720</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1607820</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3302,7 +3356,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Lunch</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3316,26 +3370,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>373380</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>807720</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>586740</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3388,7 +3442,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Dinner</a:t>
+                <a:t>Breakfast</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3402,26 +3456,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>556260</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>807720</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>769620</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3474,7 +3528,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Late Night</a:t>
+                <a:t>Lunch</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3488,26 +3542,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>586740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3560,7 +3614,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Dish Room</a:t>
+                <a:t>Dinner</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3574,26 +3628,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>556260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>769620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3646,7 +3700,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Dining Room</a:t>
+                <a:t>Late Night</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3660,26 +3714,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>365760</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>830580</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>579120</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1623060</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3732,781 +3786,7 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Back of House</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>548640</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>762000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Other</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>251460</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1065"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Breakfast</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>807720</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Lunch</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>373380</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>807720</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>586740</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Dinner</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>556260</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>807720</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>769620</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Late Night</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1069"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Dish Room</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1070"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Dining Room</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>365760</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>579120</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Back of House</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>883920</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>548640</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>762000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1072"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Other</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5022,13 +4302,985 @@
                   <a:latin typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t>Clean</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA9DA2D-B225-41FF-A31A-9F5509A670BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dish Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDB0EAE-D741-449E-B38B-BC96C181EB95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dining Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9704A0-B8DB-4F3F-B956-06931CFAE339}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Greeter</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1089660</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A8D193-A822-4CED-B23D-BC159E31E172}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Beverages</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A9CBBE-A222-4F4A-B026-B43E644F8AA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Back of House</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1104900</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>365760</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826D1462-E6B2-47B9-948B-CD98C78B0166}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3442E690-42EF-48E7-BC77-A768CC5F17B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dish Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5B0EF1-E0D2-44F9-A6A6-64DD18227CFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dining Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38C5A42-3376-48EE-9303-7E0025153E19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Greeter</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1089660</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B317A360-9BB8-4B0B-8774-753F92DC8A1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Beverages</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAFA948-3E7F-4444-8570-F09BC6460313}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Back of House</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1104900</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>365760</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1AB362-345A-4751-A413-09865CAB0AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5354,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0951A-9348-4E7F-9BF3-340EBDB95AF2}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5368,45 +5620,45 @@
     <col min="6" max="6" width="46.109375" customWidth="1"/>
     <col min="7" max="7" width="45.88671875" customWidth="1"/>
     <col min="8" max="8" width="31.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="44" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="53.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" customWidth="1"/>
     <col min="12" max="12" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>6</v>
@@ -5420,7 +5672,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="L2">
@@ -5434,206 +5686,186 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" t="b">
+      <c r="K20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="J21" t="b">
+      <c r="K21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" t="b">
+      <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="J23" t="b">
+      <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" t="b">
+      <c r="K24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="b">
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="b">
+      <c r="K31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="J32" t="b">
+      <c r="K32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="J33" t="b">
+      <c r="K33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="J34" t="b">
+      <c r="K34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="J40" t="b">
+      <c r="K40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="J41" t="b">
+      <c r="K41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C42" t="b">
         <v>0</v>
       </c>
-      <c r="J42" t="b">
+      <c r="K42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="J43" t="b">
+      <c r="K43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="J44" t="b">
+      <c r="K44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6188,13 +6420,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>251460</xdr:rowOff>
@@ -6210,13 +6442,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
@@ -6232,13 +6464,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>373380</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>586740</xdr:rowOff>
@@ -6254,13 +6486,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>556260</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>769620</xdr:rowOff>
@@ -6272,20 +6504,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId32" name="Check Box 29">
+            <control shapeId="1056" r:id="rId32" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1607820</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>243840</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6294,83 +6526,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId33" name="Check Box 30">
+            <control shapeId="1057" r:id="rId33" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId34" name="Check Box 31">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>365760</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>579120</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId35" name="Check Box 32">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>548640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>762000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId36" name="Check Box 33">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>251460</xdr:rowOff>
@@ -6382,17 +6548,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId37" name="Check Box 34">
+            <control shapeId="1058" r:id="rId34" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
@@ -6404,17 +6570,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId38" name="Check Box 35">
+            <control shapeId="1059" r:id="rId35" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>373380</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>586740</xdr:rowOff>
@@ -6426,17 +6592,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId39" name="Check Box 36">
+            <control shapeId="1060" r:id="rId36" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>556260</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>769620</xdr:rowOff>
@@ -6448,20 +6614,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId40" name="Check Box 37">
+            <control shapeId="1064" r:id="rId37" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1607820</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>259080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6470,83 +6636,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId41" name="Check Box 38">
+            <control shapeId="1065" r:id="rId38" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId42" name="Check Box 39">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>365760</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>579120</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId43" name="Check Box 40">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>548640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>762000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId44" name="Check Box 41">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>251460</xdr:rowOff>
@@ -6558,17 +6658,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId45" name="Check Box 42">
+            <control shapeId="1066" r:id="rId39" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
@@ -6580,17 +6680,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId46" name="Check Box 43">
+            <control shapeId="1067" r:id="rId40" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>373380</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>586740</xdr:rowOff>
@@ -6602,17 +6702,17 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId47" name="Check Box 44">
+            <control shapeId="1068" r:id="rId41" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>556260</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>769620</xdr:rowOff>
@@ -6624,18 +6724,238 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId48" name="Check Box 45">
+            <control shapeId="1072" r:id="rId42" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>830580</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1623060</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>251460</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId43" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId44" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId45" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>350520</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>563880</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId46" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1882140</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>236220</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId47" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1889760</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId48" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1104900</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>365760</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1897380</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>579120</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId49" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId50" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId51" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>350520</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>563880</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId52" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1882140</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>236220</xdr:rowOff>
                   </to>
@@ -6646,20 +6966,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId49" name="Check Box 46">
+            <control shapeId="1089" r:id="rId53" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1889760</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>411480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6668,18 +6988,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId50" name="Check Box 47">
+            <control shapeId="1090" r:id="rId54" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>365760</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1897380</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>579120</xdr:rowOff>
                   </to>
@@ -6690,29 +7010,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId51" name="Check Box 48">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>883920</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>548640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>762000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId52" name="Check Box 49">
+            <control shapeId="1073" r:id="rId55" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6734,7 +7032,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId53" name="Check Box 50">
+            <control shapeId="1074" r:id="rId56" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6756,7 +7054,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId54" name="Check Box 51">
+            <control shapeId="1075" r:id="rId57" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6778,7 +7076,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId55" name="Check Box 52">
+            <control shapeId="1076" r:id="rId58" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6800,7 +7098,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId56" name="Check Box 53">
+            <control shapeId="1077" r:id="rId59" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6822,7 +7120,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId57" name="Check Box 54">
+            <control shapeId="1078" r:id="rId60" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6846,4 +7144,102 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95512F70-3886-4710-AA32-FAC81B4C6232}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.81180555555555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.8125</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1048576" xr:uid="{7F1B5688-5C33-4B4B-905A-BFAE4F04C9AF}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UDM_Guidelines.xlsx
+++ b/UDM_Guidelines.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EFECC-8399-4E40-B27E-569F5BEE779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D813B-8475-4FF6-84F5-26FB219F71BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="UDM Requirements" sheetId="2" r:id="rId1"/>
-    <sheet name="UDM Times in Need" sheetId="3" r:id="rId2"/>
+    <sheet name="UDM Supervisor Requirements" sheetId="4" r:id="rId2"/>
+    <sheet name="UDM Times in Need" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,24 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
   <si>
     <t>Shift Type</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Weekend</t>
   </si>
   <si>
     <t>Minimum # of shifts worked to excuse requirement</t>
@@ -127,6 +116,33 @@
   </si>
   <si>
     <t>Shift(s) needed to excuse requirement</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Exception Note (Blank if N/A)</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>3+ b/l shifts excuse WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>All SUP</t>
   </si>
 </sst>
 </file>
@@ -220,8 +236,68 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C31" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K33" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K34" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K40" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K41" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K42" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K43" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -241,7 +317,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -277,27 +353,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C47" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C47" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -305,43 +381,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K42" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,43 +425,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H42" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,51 +469,219 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H45" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K44" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C25" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C27" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C33" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C34" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C35" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C36" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C37" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C40" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C41" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C42" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C43" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C44" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C27" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C46" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C47" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H31" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H33" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H34" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H35" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H40" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H41" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H42" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H43" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H44" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4314,14 +4558,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
@@ -4330,7 +4579,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA9DA2D-B225-41FF-A31A-9F5509A670BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4389,20 +4638,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
@@ -4411,7 +4665,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDB0EAE-D741-449E-B38B-BC96C181EB95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4470,20 +4724,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>22860</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>350520</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>563880</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
@@ -4492,7 +4751,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9704A0-B8DB-4F3F-B956-06931CFAE339}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4551,20 +4810,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1089660</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1882140</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
@@ -4573,7 +4837,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A8D193-A822-4CED-B23D-BC159E31E172}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4632,20 +4896,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1097280</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1889760</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
@@ -4654,7 +4923,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A9CBBE-A222-4F4A-B026-B43E644F8AA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4713,20 +4982,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>365760</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1897380</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>579120</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
@@ -4735,7 +5009,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826D1462-E6B2-47B9-948B-CD98C78B0166}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4794,20 +5068,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
@@ -4816,7 +5095,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3442E690-42EF-48E7-BC77-A768CC5F17B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4875,20 +5154,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
@@ -4897,7 +5181,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5B0EF1-E0D2-44F9-A6A6-64DD18227CFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4956,20 +5240,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>350520</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>563880</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
@@ -4978,7 +5267,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38C5A42-3376-48EE-9303-7E0025153E19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5037,20 +5326,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1089660</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1882140</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
@@ -5059,7 +5353,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B317A360-9BB8-4B0B-8774-753F92DC8A1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5118,20 +5412,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1097280</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1889760</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
@@ -5140,7 +5439,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAFA948-3E7F-4444-8570-F09BC6460313}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5199,20 +5498,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>365760</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="792480" cy="213360"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1897380</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>579120</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
@@ -5221,7 +5525,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1AB362-345A-4751-A413-09865CAB0AA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5280,7 +5584,4914 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>426720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Monday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>685800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Tuesday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>708660</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1455420</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>510540</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Wednesday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>716280</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>403860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>693420</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Thursday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1569720</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>129540</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Friday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1562100</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2308860</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>693420</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Saturday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2278380</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3048000</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Sunday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2270760</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3078480</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>678180</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>426720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2130" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Monday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>685800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2131" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Tuesday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>708660</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1455420</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>510540</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2132" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Wednesday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>716280</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>403860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>693420</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2133" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Thursday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1569720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>129540</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2134" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Friday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1562100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2308860</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>693420</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2135" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Saturday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2278380</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3048000</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2136" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Sunday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2270760</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3078480</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>678180</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2137" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>426720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2138" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2138"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Monday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>685800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2139" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2139"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Tuesday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>708660</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1455420</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>510540</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2140" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2140"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Wednesday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>716280</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>403860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>693420</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2141" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2141"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Thursday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1569720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>129540</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2142" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Friday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1562100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2308860</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>693420</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2143" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Saturday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2278380</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3048000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2144" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2144"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Sunday</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2270760</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>449580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3078480</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>678180</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2145" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2146" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dish Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2147" name="Check Box 99" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2147"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dining Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>563880</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2148" name="Check Box 100" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2148"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Greeter</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1089660</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1882140</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2149" name="Check Box 101" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Beverages</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1889760</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2150" name="Check Box 102" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2150"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Back of House</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1104900</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>365760</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1897380</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>579120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2151" name="Check Box 103" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2152" name="Check Box 104" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2152"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dish Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2153" name="Check Box 105" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2153"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dining Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>563880</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2154" name="Check Box 106" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2154"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Greeter</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1089660</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1882140</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2155" name="Check Box 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2155"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Beverages</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1889760</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2156" name="Check Box 108" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Back of House</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1104900</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>365760</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1897380</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>579120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2157" name="Check Box 109" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2157"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2158" name="Check Box 110" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2158"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dish Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2159" name="Check Box 111" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2159"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dining Room</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>350520</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>563880</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2160" name="Check Box 112" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2160"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Greeter</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1089660</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1882140</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2161" name="Check Box 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2161"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Beverages</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1889760</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>411480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2162" name="Check Box 114" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2162"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Back of House</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1104900</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>365760</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1897380</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>579120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2163" name="Check Box 115" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2163"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2164" name="Check Box 116" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2164"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Breakfast</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2165" name="Check Box 117" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2165"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Lunch</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>586740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2166" name="Check Box 118" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2166"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dinner</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>556260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>769620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2167" name="Check Box 119" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2167"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Late Night</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1607820</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>243840</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2168" name="Check Box 120" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2168"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2169" name="Check Box 121" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2169"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Breakfast</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2170" name="Check Box 122" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Lunch</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>586740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2171" name="Check Box 123" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2171"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dinner</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>556260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>769620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2172" name="Check Box 124" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2172"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Late Night</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>815340</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1607820</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>259080</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2173" name="Check Box 125" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2173"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2174" name="Check Box 126" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2174"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Breakfast</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2175" name="Check Box 127" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2175"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Lunch</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>586740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2176" name="Check Box 128" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2176"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Dinner</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>556260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>769620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2177" name="Check Box 129" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2177"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Late Night</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>830580</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1623060</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>251460</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2178" name="Check Box 130" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2178"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5604,10 +10815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0951A-9348-4E7F-9BF3-340EBDB95AF2}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5624,64 +10835,72 @@
     <col min="10" max="10" width="17.109375" customWidth="1"/>
     <col min="11" max="11" width="34.88671875" customWidth="1"/>
     <col min="12" max="12" width="42.33203125" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5690,28 +10909,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" t="b">
         <v>0</v>
       </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" t="b">
         <v>0</v>
       </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
@@ -5740,7 +10970,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -5748,7 +10978,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
@@ -5771,6 +11001,9 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
@@ -5796,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
@@ -5811,7 +11044,7 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
@@ -5851,13 +11084,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C45" t="b">
         <v>0</v>
       </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C46" t="b">
@@ -5866,17 +11102,20 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{8035FAB6-80BB-4061-BD1A-F3FA282E6170}">
       <formula1>0</formula1>
       <formula2>0.993055555555556</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{21BC6052-E7AD-4FE6-B53E-597E882D3370}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{21BC6052-E7AD-4FE6-B53E-597E882D3370}">
       <formula1>"Time, Day, Shift Type"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{3189A78D-85A4-41A4-9330-E61C2621425B}">
+      <formula1>"Time, Day, Shift Type, None"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6416,7 +11655,403 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId28" name="Check Box 25">
+            <control shapeId="1073" r:id="rId28" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId29" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId30" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>350520</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>563880</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId31" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1882140</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>236220</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId32" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1889760</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId33" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1104900</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>365760</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1897380</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>579120</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId34" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId35" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId36" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>350520</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>563880</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId37" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1882140</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>236220</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId38" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1889760</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId39" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1104900</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>365760</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1897380</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>579120</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId40" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId41" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId42" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>350520</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>563880</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId43" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1882140</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>236220</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId44" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1889760</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId45" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1104900</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>365760</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1897380</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>579120</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId46" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6438,7 +12073,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId29" name="Check Box 26">
+            <control shapeId="1050" r:id="rId47" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6460,7 +12095,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId30" name="Check Box 27">
+            <control shapeId="1051" r:id="rId48" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6482,7 +12117,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId31" name="Check Box 28">
+            <control shapeId="1052" r:id="rId49" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6504,7 +12139,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId32" name="Check Box 32">
+            <control shapeId="1056" r:id="rId50" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6526,7 +12161,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId33" name="Check Box 33">
+            <control shapeId="1057" r:id="rId51" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6548,7 +12183,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId34" name="Check Box 34">
+            <control shapeId="1058" r:id="rId52" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6570,7 +12205,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId35" name="Check Box 35">
+            <control shapeId="1059" r:id="rId53" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6592,7 +12227,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId36" name="Check Box 36">
+            <control shapeId="1060" r:id="rId54" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6614,7 +12249,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId37" name="Check Box 40">
+            <control shapeId="1064" r:id="rId55" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6636,7 +12271,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId38" name="Check Box 41">
+            <control shapeId="1065" r:id="rId56" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6658,7 +12293,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId39" name="Check Box 42">
+            <control shapeId="1066" r:id="rId57" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6680,7 +12315,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId40" name="Check Box 43">
+            <control shapeId="1067" r:id="rId58" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6702,7 +12337,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId41" name="Check Box 44">
+            <control shapeId="1068" r:id="rId59" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6724,7 +12359,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId42" name="Check Box 48">
+            <control shapeId="1072" r:id="rId60" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6744,9 +12379,995 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD00F279-D1BB-4B51-982D-12C68829133E}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.109375" customWidth="1"/>
+    <col min="7" max="7" width="45.88671875" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
+    <col min="9" max="9" width="53.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" customWidth="1"/>
+    <col min="12" max="12" width="42.33203125" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{B8D35B81-CF84-4DBC-B8F9-09804E02B2A3}">
+      <formula1>"Time, Day, Shift Type"</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{60F597D3-473D-4F36-AC0E-C656622D369F}">
+      <formula1>0</formula1>
+      <formula2>0.993055555555556</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{348F8368-F957-43A5-895B-4E5A2AF1C291}">
+      <formula1>"Time, Day, Shift Type, All SUP, One SUP, Multiple SUPs, None"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId43" name="Check Box 55">
+            <control shapeId="2049" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>754380</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>426720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>754380</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>685800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>708660</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1455420</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>510540</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2052" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>403860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1447800</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>693420</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2053" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1569720</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>129540</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2286000</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2054" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1562100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2308860</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>693420</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2055" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2278380</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>144780</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3048000</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2056" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2270760</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3078480</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>678180</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2130" r:id="rId11" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>754380</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>426720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2131" r:id="rId12" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>754380</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>685800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2132" r:id="rId13" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>708660</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1455420</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>510540</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2133" r:id="rId14" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>403860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1447800</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>693420</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2134" r:id="rId15" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1569720</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>129540</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2286000</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2135" r:id="rId16" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1562100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2308860</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>693420</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2136" r:id="rId17" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2278380</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>144780</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3048000</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2137" r:id="rId18" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2270760</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3078480</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>678180</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2138" r:id="rId19" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>754380</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>426720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2139" r:id="rId20" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>754380</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>685800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2140" r:id="rId21" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>708660</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1455420</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>510540</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2141" r:id="rId22" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>403860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1447800</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>693420</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2142" r:id="rId23" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1569720</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>129540</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2286000</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2143" r:id="rId24" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1562100</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2308860</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>693420</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2144" r:id="rId25" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2278380</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>144780</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3048000</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2145" r:id="rId26" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2270760</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>449580</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3078480</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>678180</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2146" r:id="rId27" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2147" r:id="rId28" name="Check Box 99">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>175260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2148" r:id="rId29" name="Check Box 100">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>350520</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>563880</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2149" r:id="rId30" name="Check Box 101">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1882140</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>236220</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2150" r:id="rId31" name="Check Box 102">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1889760</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2151" r:id="rId32" name="Check Box 103">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1104900</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>365760</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1897380</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>579120</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2152" r:id="rId33" name="Check Box 104">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6768,7 +13389,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId44" name="Check Box 56">
+            <control shapeId="2153" r:id="rId34" name="Check Box 105">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6790,7 +13411,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId45" name="Check Box 57">
+            <control shapeId="2154" r:id="rId35" name="Check Box 106">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6812,7 +13433,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId46" name="Check Box 58">
+            <control shapeId="2155" r:id="rId36" name="Check Box 107">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6834,7 +13455,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId47" name="Check Box 59">
+            <control shapeId="2156" r:id="rId37" name="Check Box 108">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6856,7 +13477,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId48" name="Check Box 60">
+            <control shapeId="2157" r:id="rId38" name="Check Box 109">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6878,7 +13499,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId49" name="Check Box 61">
+            <control shapeId="2158" r:id="rId39" name="Check Box 110">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6900,7 +13521,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId50" name="Check Box 62">
+            <control shapeId="2159" r:id="rId40" name="Check Box 111">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6922,7 +13543,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId51" name="Check Box 63">
+            <control shapeId="2160" r:id="rId41" name="Check Box 112">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6944,7 +13565,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1088" r:id="rId52" name="Check Box 64">
+            <control shapeId="2161" r:id="rId42" name="Check Box 113">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6966,7 +13587,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1089" r:id="rId53" name="Check Box 65">
+            <control shapeId="2162" r:id="rId43" name="Check Box 114">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6988,7 +13609,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId54" name="Check Box 66">
+            <control shapeId="2163" r:id="rId44" name="Check Box 115">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7010,20 +13631,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId55" name="Check Box 49">
+            <control shapeId="2164" r:id="rId45" name="Check Box 116">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7032,20 +13653,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId56" name="Check Box 50">
+            <control shapeId="2165" r:id="rId46" name="Check Box 117">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>175260</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7054,20 +13675,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId57" name="Check Box 51">
+            <control shapeId="2166" r:id="rId47" name="Check Box 118">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>350520</xdr:rowOff>
+                    <xdr:rowOff>373380</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>563880</xdr:rowOff>
+                    <xdr:rowOff>586740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7076,20 +13697,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId58" name="Check Box 52">
+            <control shapeId="2167" r:id="rId48" name="Check Box 119">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1089660</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>556260</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1882140</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>769620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7098,20 +13719,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId59" name="Check Box 53">
+            <control shapeId="2168" r:id="rId49" name="Check Box 120">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>198120</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1889760</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1607820</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>411480</xdr:rowOff>
+                    <xdr:rowOff>243840</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7120,20 +13741,218 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId60" name="Check Box 54">
+            <control shapeId="2169" r:id="rId50" name="Check Box 121">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1104900</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>365760</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1897380</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>579120</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>251460</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2170" r:id="rId51" name="Check Box 122">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2171" r:id="rId52" name="Check Box 123">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>373380</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>586740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2172" r:id="rId53" name="Check Box 124">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>556260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>769620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2173" r:id="rId54" name="Check Box 125">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>815340</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1607820</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>259080</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2174" r:id="rId55" name="Check Box 126">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>251460</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2175" r:id="rId56" name="Check Box 127">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2176" r:id="rId57" name="Check Box 128">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>373380</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>586740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2177" r:id="rId58" name="Check Box 129">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>556260</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>807720</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>769620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2178" r:id="rId59" name="Check Box 130">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>830580</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1623060</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7146,12 +13965,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95512F70-3886-4710-AA32-FAC81B4C6232}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7166,27 +13985,27 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>0.375</v>
@@ -7194,7 +14013,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>0.375</v>
@@ -7205,7 +14024,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0.54166666666666663</v>
@@ -7216,7 +14035,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>0.625</v>
@@ -7227,7 +14046,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>0.8125</v>
